--- a/Data Sheets/Crew.xlsx
+++ b/Data Sheets/Crew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unique Characters" sheetId="1" state="visible" r:id="rId2"/>
@@ -1833,7 +1833,7 @@
     <t xml:space="preserve">Philipp</t>
   </si>
   <si>
-    <t xml:space="preserve">Niolaus</t>
+    <t xml:space="preserve">Nikolaus</t>
   </si>
   <si>
     <t xml:space="preserve">Gerhard</t>
@@ -5864,7 +5864,7 @@
   </sheetPr>
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -6315,8 +6315,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1280" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1395" activeCellId="0" sqref="E1395"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Sheets/Crew.xlsx
+++ b/Data Sheets/Crew.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unique Characters" sheetId="1" state="visible" r:id="rId2"/>
@@ -815,7 +815,7 @@
     <t xml:space="preserve">Fridolin</t>
   </si>
   <si>
-    <t xml:space="preserve">Blathasar</t>
+    <t xml:space="preserve">Balthasar</t>
   </si>
   <si>
     <t xml:space="preserve">Nicolaus</t>
@@ -4627,7 +4627,7 @@
   </sheetPr>
   <dimension ref="A1:B161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -5174,8 +5174,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A225" activeCellId="0" sqref="A225"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A160" activeCellId="0" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
